--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1428414.325271317</v>
+        <v>1425562.490039463</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4919747.866036818</v>
+        <v>4919747.86603682</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8361676.120488032</v>
+        <v>8361676.120488031</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -673,10 +673,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>200.1374453629759</v>
       </c>
       <c r="H2" t="n">
-        <v>267.5449688633062</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>115.9409795784031</v>
       </c>
       <c r="X4" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>54.7004171927703</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -913,7 +913,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>201.2429265116777</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.84909166872221</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>86.80189607361297</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>226.0606298251495</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>344.4265973353876</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>109.2918905836234</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.192128876087</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
@@ -1435,10 +1435,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>126.9583492414527</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>388.2328037532544</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46.8970890540754</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -1666,10 +1666,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.8366992178271</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164.5298758961401</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1861,10 +1861,10 @@
         <v>408.8313869843473</v>
       </c>
       <c r="H17" t="n">
-        <v>318.7966226942565</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>129.2532318950163</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>220.3912303089296</v>
       </c>
       <c r="U17" t="n">
-        <v>253.179222991945</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>72.77199171369458</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>86.38229489247486</v>
       </c>
       <c r="I18" t="n">
-        <v>45.21383710579055</v>
+        <v>45.21383710579056</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.04250582871806</v>
+        <v>17.04250582871808</v>
       </c>
       <c r="S18" t="n">
         <v>131.5962913112782</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>129.0690572509242</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.2264929501066</v>
       </c>
       <c r="T19" t="n">
-        <v>232.9790380929424</v>
+        <v>198.3086179592517</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>196.4839705235946</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -2098,10 +2098,10 @@
         <v>408.8313869843473</v>
       </c>
       <c r="H20" t="n">
-        <v>318.7966226942565</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>129.2532318950163</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>25.06600571167706</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>160.296822096844</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1172911878030254</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>71.8733266239694</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2180,7 +2180,7 @@
         <v>86.38229489247486</v>
       </c>
       <c r="I21" t="n">
-        <v>45.21383710579055</v>
+        <v>45.21383710579056</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.04250582871806</v>
+        <v>17.04250582871808</v>
       </c>
       <c r="S21" t="n">
         <v>131.5962913112782</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>13.82914934644382</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4819164376007</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>129.0690572509242</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>118.6333759660428</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>75.20185338825105</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>257.9314895918403</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>360.3347300122203</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>314.7099853831353</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2414,7 +2414,7 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H24" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I24" t="n">
         <v>37.86294566882081</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597846</v>
+        <v>3.78655434059786</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124798</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.356650920421</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>49.99795536377253</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>127.7434034310398</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>293.7656639299665</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>113.8693593270195</v>
@@ -2611,10 +2611,10 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2651,7 +2651,7 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H27" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I27" t="n">
         <v>37.86294566882081</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597846</v>
+        <v>3.78655434059786</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>122.4188546503318</v>
       </c>
       <c r="T28" t="n">
-        <v>76.66783807881613</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
         <v>282.5697534131281</v>
@@ -2775,10 +2775,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>2.072549941105668</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>408.4323500200001</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1473000347972</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>338.7214604953226</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>109.1083370416196</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>76.19311257242943</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3046,10 +3046,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>46.68169857641491</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>90.86889566983903</v>
       </c>
       <c r="T32" t="n">
         <v>218.6444459974996</v>
@@ -3091,13 +3091,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>35.29018096786454</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>88.69927009073507</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3280,10 +3280,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.4323500200001</v>
+        <v>219.6580609573555</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>50.65306009718973</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>66.30979277347539</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.60497553005931</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -3511,19 +3511,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.4323500200001</v>
+        <v>154.8611665249456</v>
       </c>
       <c r="H38" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>23.98041438114988</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>107.7731453049667</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>219.7291516082681</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>326.0274472522693</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3760,7 +3760,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>32.38402576231127</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>106.0639828634812</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.9797771523637</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>389.0442063775612</v>
       </c>
       <c r="H44" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>330.0259963944459</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4076,7 +4076,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4134,31 +4134,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>83.37694959042054</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>107.7659629738807</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2481.961037053796</v>
+        <v>1939.351795615885</v>
       </c>
       <c r="C2" t="n">
-        <v>2088.785535556727</v>
+        <v>1546.176294118816</v>
       </c>
       <c r="D2" t="n">
-        <v>1703.344406773394</v>
+        <v>1546.176294118816</v>
       </c>
       <c r="E2" t="n">
-        <v>1300.760881889939</v>
+        <v>1143.59276923536</v>
       </c>
       <c r="F2" t="n">
-        <v>883.8664434199167</v>
+        <v>726.6983307653378</v>
       </c>
       <c r="G2" t="n">
-        <v>470.7036879079198</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116509</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L2" t="n">
         <v>1059.071548358934</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V2" t="n">
-        <v>2882.455782765193</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W2" t="n">
-        <v>2882.455782765193</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="X2" t="n">
-        <v>2882.455782765193</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="Y2" t="n">
-        <v>2882.455782765193</v>
+        <v>1939.351795615885</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M3" t="n">
-        <v>1848.246628138775</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N3" t="n">
-        <v>2504.024599349334</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O3" t="n">
-        <v>3020.544881940315</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P3" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.11912770411553</v>
+        <v>561.0152579033233</v>
       </c>
       <c r="C4" t="n">
-        <v>62.11912770411553</v>
+        <v>561.0152579033233</v>
       </c>
       <c r="D4" t="n">
-        <v>62.11912770411553</v>
+        <v>405.3821448058382</v>
       </c>
       <c r="E4" t="n">
-        <v>62.11912770411553</v>
+        <v>249.8233326650406</v>
       </c>
       <c r="F4" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="G4" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="H4" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I4" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4524,16 +4524,16 @@
         <v>678.1273584875689</v>
       </c>
       <c r="V4" t="n">
-        <v>412.1480133083932</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W4" t="n">
-        <v>128.8176112395708</v>
+        <v>561.0152579033233</v>
       </c>
       <c r="X4" t="n">
-        <v>62.11912770411553</v>
+        <v>561.0152579033233</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.11912770411553</v>
+        <v>561.0152579033233</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.525411633559</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="C5" t="n">
-        <v>1488.349910136489</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="D5" t="n">
-        <v>1433.096963477125</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E5" t="n">
-        <v>1030.51343859367</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F5" t="n">
-        <v>613.6190001236475</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G5" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
         <v>200.4562446116507</v>
@@ -4600,19 +4600,19 @@
         <v>3067.963471491298</v>
       </c>
       <c r="U5" t="n">
-        <v>3067.963471491298</v>
+        <v>2864.687788146169</v>
       </c>
       <c r="V5" t="n">
-        <v>3067.963471491298</v>
+        <v>2522.580978849688</v>
       </c>
       <c r="W5" t="n">
-        <v>3067.963471491298</v>
+        <v>2151.581943817975</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.510866424355</v>
+        <v>2151.581943817975</v>
       </c>
       <c r="Y5" t="n">
-        <v>2282.020157344956</v>
+        <v>1755.091234738576</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N6" t="n">
-        <v>1829.234834439669</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O6" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.7894096646017</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7894096646017</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="D7" t="n">
         <v>92.49739787801357</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>636.8490770607943</v>
+        <v>875.8874673430286</v>
       </c>
       <c r="V7" t="n">
-        <v>370.8697318816186</v>
+        <v>609.9081221638528</v>
       </c>
       <c r="W7" t="n">
-        <v>370.8697318816186</v>
+        <v>326.5777200950305</v>
       </c>
       <c r="X7" t="n">
-        <v>136.7894096646017</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.7894096646017</v>
+        <v>92.49739787801357</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>950.6597514544419</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="C8" t="n">
-        <v>557.4842499573724</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="D8" t="n">
-        <v>557.4842499573724</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="E8" t="n">
-        <v>557.4842499573724</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="F8" t="n">
-        <v>209.5785960832435</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G8" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H8" t="n">
         <v>200.4562446116507</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V8" t="n">
-        <v>2508.096846343894</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W8" t="n">
-        <v>2137.097811312181</v>
+        <v>1964.843469663571</v>
       </c>
       <c r="X8" t="n">
-        <v>1747.645206245238</v>
+        <v>1575.390864596628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1351.154497165839</v>
+        <v>1178.900155517229</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C10" t="n">
-        <v>62.11912770411553</v>
+        <v>729.2693118038778</v>
       </c>
       <c r="D10" t="n">
-        <v>62.11912770411553</v>
+        <v>573.6361987063926</v>
       </c>
       <c r="E10" t="n">
-        <v>62.11912770411553</v>
+        <v>418.0773865655951</v>
       </c>
       <c r="F10" t="n">
-        <v>62.11912770411553</v>
+        <v>260.751451778568</v>
       </c>
       <c r="G10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="H10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T10" t="n">
-        <v>896.8676667102127</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U10" t="n">
-        <v>611.4288749521137</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V10" t="n">
-        <v>345.4495297729379</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593.6317461087201</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="C11" t="n">
-        <v>200.4562446116507</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D11" t="n">
-        <v>200.4562446116507</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E11" t="n">
-        <v>200.4562446116507</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F11" t="n">
-        <v>200.4562446116507</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G11" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
         <v>206.768900612944</v>
@@ -5047,19 +5047,19 @@
         <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2972.428982300638</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T11" t="n">
-        <v>2748.928379860055</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="U11" t="n">
-        <v>2493.175650294653</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V11" t="n">
-        <v>2151.068840998172</v>
+        <v>2118.08268884436</v>
       </c>
       <c r="W11" t="n">
-        <v>1780.069805966459</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X11" t="n">
-        <v>1390.617200899516</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="Y11" t="n">
-        <v>994.1264918201171</v>
+        <v>1618.8428970031</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5229,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>522.652680240431</v>
+        <v>1273.751438283103</v>
       </c>
       <c r="C14" t="n">
-        <v>522.652680240431</v>
+        <v>1273.751438283103</v>
       </c>
       <c r="D14" t="n">
-        <v>522.652680240431</v>
+        <v>1273.751438283103</v>
       </c>
       <c r="E14" t="n">
-        <v>522.652680240431</v>
+        <v>871.1679133996472</v>
       </c>
       <c r="F14" t="n">
-        <v>522.652680240431</v>
+        <v>454.273474929625</v>
       </c>
       <c r="G14" t="n">
-        <v>109.4899247284341</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H14" t="n">
-        <v>109.4899247284341</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
@@ -5296,34 +5296,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T14" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="U14" t="n">
-        <v>2422.196584426364</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V14" t="n">
-        <v>2080.089775129883</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.09074009817</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="X14" t="n">
-        <v>1319.638135031227</v>
+        <v>2070.736893073899</v>
       </c>
       <c r="Y14" t="n">
-        <v>923.1474259518279</v>
+        <v>1674.2461839945</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5463,25 +5463,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>596.2685520667757</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>596.2685520667757</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>596.2685520667757</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>596.2685520667757</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>596.2685520667757</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>373.1564908834191</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2530.367792513954</v>
+        <v>1692.351053034386</v>
       </c>
       <c r="C17" t="n">
-        <v>2137.192291016884</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="D17" t="n">
-        <v>1751.751162233552</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="E17" t="n">
-        <v>1349.167637350096</v>
+        <v>896.5920266538615</v>
       </c>
       <c r="F17" t="n">
-        <v>932.2731988800742</v>
+        <v>479.6975881838392</v>
       </c>
       <c r="G17" t="n">
-        <v>519.3122019261881</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="H17" t="n">
-        <v>197.295411325929</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="I17" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="J17" t="n">
-        <v>228.1696018523348</v>
+        <v>228.1696018523344</v>
       </c>
       <c r="K17" t="n">
         <v>612.3056806068516</v>
@@ -5530,37 +5530,37 @@
         <v>2280.649490936953</v>
       </c>
       <c r="O17" t="n">
-        <v>2754.006657546709</v>
+        <v>2754.006657546708</v>
       </c>
       <c r="P17" t="n">
-        <v>3130.629921188929</v>
+        <v>3130.629921188928</v>
       </c>
       <c r="Q17" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497649</v>
       </c>
       <c r="R17" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497649</v>
       </c>
       <c r="S17" t="n">
-        <v>3174.913579581646</v>
+        <v>3174.913579581645</v>
       </c>
       <c r="T17" t="n">
         <v>2952.296175229191</v>
       </c>
       <c r="U17" t="n">
-        <v>2696.559586348439</v>
+        <v>2952.296175229191</v>
       </c>
       <c r="V17" t="n">
-        <v>2696.559586348439</v>
+        <v>2878.789112892126</v>
       </c>
       <c r="W17" t="n">
-        <v>2696.559586348439</v>
+        <v>2878.789112892126</v>
       </c>
       <c r="X17" t="n">
-        <v>2696.559586348439</v>
+        <v>2489.336507825182</v>
       </c>
       <c r="Y17" t="n">
-        <v>2696.559586348439</v>
+        <v>2092.845798745783</v>
       </c>
     </row>
     <row r="18">
@@ -5591,13 +5591,13 @@
         <v>112.4071337610546</v>
       </c>
       <c r="I18" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="J18" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="K18" t="n">
-        <v>403.5604616506785</v>
+        <v>403.5604616506784</v>
       </c>
       <c r="L18" t="n">
         <v>910.0990678349328</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.73659122995299</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="C19" t="n">
-        <v>66.73659122995299</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="D19" t="n">
-        <v>66.73659122995299</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="E19" t="n">
-        <v>66.73659122995299</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="F19" t="n">
-        <v>66.73659122995299</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="G19" t="n">
-        <v>66.73659122995299</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="H19" t="n">
-        <v>66.73659122995299</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="I19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="J19" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="K19" t="n">
         <v>158.8770705324135</v>
       </c>
       <c r="L19" t="n">
-        <v>336.1921232544489</v>
+        <v>336.1921232544488</v>
       </c>
       <c r="M19" t="n">
-        <v>536.3879794294578</v>
+        <v>536.3879794294577</v>
       </c>
       <c r="N19" t="n">
-        <v>733.1512786480431</v>
+        <v>733.151278648043</v>
       </c>
       <c r="O19" t="n">
-        <v>908.3935224516667</v>
+        <v>908.3935224516665</v>
       </c>
       <c r="P19" t="n">
-        <v>1038.997665514104</v>
+        <v>1038.997665514103</v>
       </c>
       <c r="Q19" t="n">
         <v>1049.847357282534</v>
@@ -5700,25 +5700,25 @@
         <v>1049.847357282534</v>
       </c>
       <c r="S19" t="n">
-        <v>1049.847357282534</v>
+        <v>848.6084755147492</v>
       </c>
       <c r="T19" t="n">
-        <v>814.5149955724911</v>
+        <v>648.2967402023737</v>
       </c>
       <c r="U19" t="n">
-        <v>814.5149955724911</v>
+        <v>648.2967402023737</v>
       </c>
       <c r="V19" t="n">
-        <v>548.5356503933153</v>
+        <v>382.3173950231979</v>
       </c>
       <c r="W19" t="n">
-        <v>265.205248324493</v>
+        <v>382.3173950231979</v>
       </c>
       <c r="X19" t="n">
-        <v>66.73659122995299</v>
+        <v>382.3173950231979</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.73659122995299</v>
+        <v>382.3173950231979</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2530.367792513954</v>
+        <v>2077.792181817719</v>
       </c>
       <c r="C20" t="n">
-        <v>2137.192291016884</v>
+        <v>1684.616680320649</v>
       </c>
       <c r="D20" t="n">
-        <v>1751.751162233552</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="E20" t="n">
-        <v>1349.167637350096</v>
+        <v>896.5920266538615</v>
       </c>
       <c r="F20" t="n">
-        <v>932.2731988800742</v>
+        <v>479.6975881838392</v>
       </c>
       <c r="G20" t="n">
-        <v>519.3122019261881</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="H20" t="n">
-        <v>197.295411325929</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="I20" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="J20" t="n">
-        <v>228.1696018523346</v>
+        <v>228.1696018523344</v>
       </c>
       <c r="K20" t="n">
-        <v>612.3056806068519</v>
+        <v>612.3056806068518</v>
       </c>
       <c r="L20" t="n">
         <v>1136.831389612605</v>
       </c>
       <c r="M20" t="n">
-        <v>1717.55432902943</v>
+        <v>1717.554329029429</v>
       </c>
       <c r="N20" t="n">
         <v>2280.649490936953</v>
       </c>
       <c r="O20" t="n">
-        <v>2754.006657546709</v>
+        <v>2754.006657546708</v>
       </c>
       <c r="P20" t="n">
         <v>3130.629921188928</v>
       </c>
       <c r="Q20" t="n">
-        <v>3336.82956149765</v>
+        <v>3336.829561497649</v>
       </c>
       <c r="R20" t="n">
-        <v>3311.510363809087</v>
+        <v>3336.829561497649</v>
       </c>
       <c r="S20" t="n">
-        <v>3149.594381893083</v>
+        <v>3336.829561497649</v>
       </c>
       <c r="T20" t="n">
-        <v>2926.976977540628</v>
+        <v>3336.829561497649</v>
       </c>
       <c r="U20" t="n">
-        <v>2926.858501593353</v>
+        <v>3336.829561497649</v>
       </c>
       <c r="V20" t="n">
-        <v>2926.858501593353</v>
+        <v>3264.230241675458</v>
       </c>
       <c r="W20" t="n">
-        <v>2926.858501593353</v>
+        <v>3264.230241675458</v>
       </c>
       <c r="X20" t="n">
-        <v>2926.858501593353</v>
+        <v>2874.777636608515</v>
       </c>
       <c r="Y20" t="n">
-        <v>2530.367792513954</v>
+        <v>2478.286927529115</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>112.4071337610546</v>
       </c>
       <c r="I21" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="J21" t="n">
-        <v>66.73659122995299</v>
+        <v>189.847554855184</v>
       </c>
       <c r="K21" t="n">
-        <v>66.73659122995299</v>
+        <v>526.6714252759094</v>
       </c>
       <c r="L21" t="n">
-        <v>573.2751974142075</v>
+        <v>1033.210031460164</v>
       </c>
       <c r="M21" t="n">
-        <v>1227.854694670801</v>
+        <v>1033.210031460164</v>
       </c>
       <c r="N21" t="n">
-        <v>1227.854694670801</v>
+        <v>1155.666274078557</v>
       </c>
       <c r="O21" t="n">
-        <v>1769.547996309383</v>
+        <v>1697.359575717138</v>
       </c>
       <c r="P21" t="n">
         <v>2123.184511511797</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>406.1949156978332</v>
+        <v>352.7424894293819</v>
       </c>
       <c r="C22" t="n">
-        <v>406.1949156978332</v>
+        <v>352.7424894293819</v>
       </c>
       <c r="D22" t="n">
-        <v>406.1949156978332</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="E22" t="n">
-        <v>392.2260779741525</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="F22" t="n">
-        <v>234.9001431871255</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="G22" t="n">
-        <v>66.73659122995299</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="H22" t="n">
-        <v>66.73659122995299</v>
+        <v>197.1093763318966</v>
       </c>
       <c r="I22" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="J22" t="n">
-        <v>66.73659122995299</v>
+        <v>66.73659122995298</v>
       </c>
       <c r="K22" t="n">
         <v>158.8770705324135</v>
       </c>
       <c r="L22" t="n">
-        <v>336.1921232544489</v>
+        <v>336.1921232544488</v>
       </c>
       <c r="M22" t="n">
-        <v>536.3879794294578</v>
+        <v>536.3879794294577</v>
       </c>
       <c r="N22" t="n">
-        <v>733.1512786480431</v>
+        <v>733.151278648043</v>
       </c>
       <c r="O22" t="n">
-        <v>908.3935224516667</v>
+        <v>908.3935224516665</v>
       </c>
       <c r="P22" t="n">
-        <v>1038.997665514104</v>
+        <v>1038.997665514103</v>
       </c>
       <c r="Q22" t="n">
         <v>1049.847357282534</v>
       </c>
       <c r="R22" t="n">
-        <v>1049.847357282534</v>
+        <v>930.0156643875409</v>
       </c>
       <c r="S22" t="n">
-        <v>1049.847357282534</v>
+        <v>930.0156643875409</v>
       </c>
       <c r="T22" t="n">
-        <v>814.5149955724911</v>
+        <v>694.6833026774981</v>
       </c>
       <c r="U22" t="n">
-        <v>814.5149955724911</v>
+        <v>694.6833026774981</v>
       </c>
       <c r="V22" t="n">
-        <v>814.5149955724911</v>
+        <v>428.7039574983223</v>
       </c>
       <c r="W22" t="n">
-        <v>814.5149955724911</v>
+        <v>352.7424894293819</v>
       </c>
       <c r="X22" t="n">
-        <v>814.5149955724911</v>
+        <v>352.7424894293819</v>
       </c>
       <c r="Y22" t="n">
-        <v>591.4029343891344</v>
+        <v>352.7424894293819</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2355.919174065941</v>
+        <v>1867.040428696366</v>
       </c>
       <c r="C23" t="n">
-        <v>1962.743672568871</v>
+        <v>1473.864927199297</v>
       </c>
       <c r="D23" t="n">
-        <v>1577.302543785539</v>
+        <v>1213.32806902572</v>
       </c>
       <c r="E23" t="n">
-        <v>1174.719018902083</v>
+        <v>810.7445441422649</v>
       </c>
       <c r="F23" t="n">
-        <v>757.8245804320612</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="G23" t="n">
         <v>393.8501056722426</v>
@@ -5989,22 +5989,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N23" t="n">
         <v>2575.851817818621</v>
       </c>
       <c r="O23" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.76989136177</v>
       </c>
       <c r="P23" t="n">
         <v>3549.201349130635</v>
@@ -6016,25 +6016,25 @@
         <v>3798.061577393172</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T23" t="n">
-        <v>3798.061577393172</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U23" t="n">
-        <v>3542.35723392368</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V23" t="n">
-        <v>3542.35723392368</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="W23" t="n">
-        <v>3542.35723392368</v>
+        <v>3053.478488554105</v>
       </c>
       <c r="X23" t="n">
-        <v>3152.904628856737</v>
+        <v>2664.025883487162</v>
       </c>
       <c r="Y23" t="n">
-        <v>2756.413919777337</v>
+        <v>2267.535174407763</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F24" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G24" t="n">
         <v>199.3786510244077</v>
@@ -6068,25 +6068,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K24" t="n">
-        <v>446.9164895271324</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L24" t="n">
-        <v>999.3489583586882</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M24" t="n">
-        <v>999.3489583586882</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N24" t="n">
-        <v>1294.106752377725</v>
+        <v>1485.442160359521</v>
       </c>
       <c r="O24" t="n">
-        <v>1886.090011940317</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955793</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276967</v>
+        <v>844.20395492894</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R25" t="n">
-        <v>3686.359411909726</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S25" t="n">
-        <v>3488.271420568131</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T25" t="n">
-        <v>3253.711577637592</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U25" t="n">
-        <v>2968.287584290998</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="V25" t="n">
-        <v>2702.308239111822</v>
+        <v>956.2382098659695</v>
       </c>
       <c r="W25" t="n">
-        <v>2651.80525389589</v>
+        <v>672.9078077971471</v>
       </c>
       <c r="X25" t="n">
-        <v>2651.80525389589</v>
+        <v>438.8274855801302</v>
       </c>
       <c r="Y25" t="n">
-        <v>2651.80525389589</v>
+        <v>215.7154243967736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1611.336085226874</v>
+        <v>1524.933619399885</v>
       </c>
       <c r="C26" t="n">
-        <v>1218.160583729804</v>
+        <v>1395.899878560451</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.160583729804</v>
+        <v>1010.458749777118</v>
       </c>
       <c r="E26" t="n">
-        <v>1218.160583729804</v>
+        <v>607.8752248936629</v>
       </c>
       <c r="F26" t="n">
-        <v>921.4275898611513</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="G26" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H26" t="n">
         <v>190.9807864236407</v>
@@ -6226,22 +6226,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M26" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N26" t="n">
         <v>2575.851817818621</v>
       </c>
       <c r="O26" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.76989136177</v>
       </c>
       <c r="P26" t="n">
         <v>3549.201349130635</v>
@@ -6259,19 +6259,19 @@
         <v>3424.477523585818</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116325</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V26" t="n">
-        <v>3168.773180116325</v>
+        <v>3082.370714289336</v>
       </c>
       <c r="W26" t="n">
-        <v>2797.774145084613</v>
+        <v>2711.371679257624</v>
       </c>
       <c r="X26" t="n">
-        <v>2408.32154001767</v>
+        <v>2321.91907419068</v>
       </c>
       <c r="Y26" t="n">
-        <v>2011.830830938271</v>
+        <v>1925.428365111282</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F27" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G27" t="n">
         <v>199.3786510244077</v>
@@ -6305,22 +6305,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786345</v>
+        <v>215.0160241061163</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786345</v>
+        <v>585.9712820853852</v>
       </c>
       <c r="L27" t="n">
-        <v>628.3937003794192</v>
+        <v>585.9712820853852</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.529170671759</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N27" t="n">
-        <v>2074.797953750985</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O27" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P27" t="n">
         <v>2352.277072610002</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="C28" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="D28" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="E28" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="F28" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I28" t="n">
         <v>75.96123154786345</v>
@@ -6393,10 +6393,10 @@
         <v>392.350128542232</v>
       </c>
       <c r="M28" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955793</v>
       </c>
       <c r="N28" t="n">
-        <v>844.2039549289402</v>
+        <v>844.20395492894</v>
       </c>
       <c r="O28" t="n">
         <v>1044.49322140544</v>
@@ -6408,28 +6408,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R28" t="n">
-        <v>1222.217555045145</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S28" t="n">
-        <v>1222.217555045145</v>
+        <v>986.8599808239898</v>
       </c>
       <c r="T28" t="n">
-        <v>1144.775294359473</v>
+        <v>752.3001378934509</v>
       </c>
       <c r="U28" t="n">
-        <v>859.3513010128785</v>
+        <v>466.8761445468569</v>
       </c>
       <c r="V28" t="n">
-        <v>593.3719558337027</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="W28" t="n">
-        <v>310.0415537648803</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="X28" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1269.229275930392</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C29" t="n">
-        <v>876.0537744333228</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D29" t="n">
-        <v>490.6126456499906</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E29" t="n">
-        <v>488.5191608609949</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F29" t="n">
         <v>488.5191608609949</v>
@@ -6490,25 +6490,25 @@
         <v>3798.061577393172</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.773180116325</v>
+        <v>3542.35723392368</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.666370819844</v>
+        <v>3200.250424627198</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.667335788131</v>
+        <v>2829.251389595486</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.214730721188</v>
+        <v>2487.108500206271</v>
       </c>
       <c r="Y29" t="n">
-        <v>1669.724021641789</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K30" t="n">
-        <v>446.9164895271324</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L30" t="n">
-        <v>999.3489583586882</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M30" t="n">
-        <v>1707.484428651028</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N30" t="n">
-        <v>1707.484428651028</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O30" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.2382098659697</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C31" t="n">
-        <v>956.2382098659697</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D31" t="n">
-        <v>846.0277684097882</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E31" t="n">
-        <v>690.4689562689907</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F31" t="n">
-        <v>533.1430214819636</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G31" t="n">
-        <v>365.1602717923346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H31" t="n">
-        <v>212.0938618291478</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I31" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J31" t="n">
         <v>75.96123154786345</v>
@@ -6651,22 +6651,22 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T31" t="n">
-        <v>1222.217555045145</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U31" t="n">
-        <v>1222.217555045145</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V31" t="n">
-        <v>956.2382098659697</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W31" t="n">
-        <v>956.2382098659697</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="X31" t="n">
-        <v>956.2382098659697</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y31" t="n">
-        <v>956.2382098659697</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2066.214730721189</v>
+        <v>1701.172625711542</v>
       </c>
       <c r="C32" t="n">
-        <v>1673.039229224119</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="D32" t="n">
-        <v>1673.039229224119</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E32" t="n">
-        <v>1270.455704340664</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F32" t="n">
-        <v>853.5612658706417</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G32" t="n">
-        <v>441.0033365575102</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H32" t="n">
-        <v>123.1144624331311</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I32" t="n">
         <v>75.96123154786346</v>
@@ -6706,13 +6706,13 @@
         <v>705.31081511305</v>
       </c>
       <c r="L32" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N32" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O32" t="n">
         <v>3115.769891361771</v>
@@ -6727,25 +6727,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.330499340869</v>
+        <v>3706.274814090305</v>
       </c>
       <c r="T32" t="n">
-        <v>3424.477523585819</v>
+        <v>3485.421838335255</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.773180116326</v>
+        <v>3229.717494865763</v>
       </c>
       <c r="V32" t="n">
-        <v>2826.666370819845</v>
+        <v>2887.610685569281</v>
       </c>
       <c r="W32" t="n">
-        <v>2455.667335788132</v>
+        <v>2887.610685569281</v>
       </c>
       <c r="X32" t="n">
-        <v>2066.214730721189</v>
+        <v>2498.158080502338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2066.214730721189</v>
+        <v>2101.667371422939</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>75.96123154786346</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K33" t="n">
-        <v>353.4403504068808</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L33" t="n">
-        <v>905.8728192384366</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M33" t="n">
-        <v>1614.008289530776</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N33" t="n">
-        <v>2352.277072610002</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3030.599516454236</v>
+        <v>414.1490991715033</v>
       </c>
       <c r="C34" t="n">
-        <v>3030.599516454236</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="D34" t="n">
-        <v>3030.599516454236</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="E34" t="n">
-        <v>3030.599516454236</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="F34" t="n">
-        <v>3030.599516454236</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="G34" t="n">
-        <v>2941.004294140363</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H34" t="n">
-        <v>2787.937884177176</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I34" t="n">
-        <v>2663.002316357358</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J34" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K34" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L34" t="n">
-        <v>2968.19415089026</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M34" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N34" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O34" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P34" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q34" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R34" t="n">
-        <v>3686.359411909727</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S34" t="n">
-        <v>3488.271420568132</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T34" t="n">
-        <v>3253.711577637593</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U34" t="n">
-        <v>3253.711577637593</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="V34" t="n">
-        <v>3253.711577637593</v>
+        <v>956.2382098659697</v>
       </c>
       <c r="W34" t="n">
-        <v>3253.711577637593</v>
+        <v>672.9078077971474</v>
       </c>
       <c r="X34" t="n">
-        <v>3253.711577637593</v>
+        <v>672.9078077971474</v>
       </c>
       <c r="Y34" t="n">
-        <v>3030.599516454236</v>
+        <v>449.7957466137907</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2404.502628619254</v>
+        <v>1895.932654431597</v>
       </c>
       <c r="C35" t="n">
-        <v>2011.327127122184</v>
+        <v>1502.757152934528</v>
       </c>
       <c r="D35" t="n">
-        <v>1625.885998338852</v>
+        <v>1117.316024151195</v>
       </c>
       <c r="E35" t="n">
-        <v>1223.302473455396</v>
+        <v>714.7324992677397</v>
       </c>
       <c r="F35" t="n">
-        <v>806.4080349853741</v>
+        <v>297.8380607977175</v>
       </c>
       <c r="G35" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H35" t="n">
         <v>75.96123154786345</v>
@@ -6937,10 +6937,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6949,19 +6949,19 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O35" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S35" t="n">
         <v>3645.330499340868</v>
@@ -6970,19 +6970,19 @@
         <v>3424.477523585818</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116326</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819845</v>
+        <v>3082.370714289336</v>
       </c>
       <c r="W35" t="n">
-        <v>2455.667335788132</v>
+        <v>3082.370714289336</v>
       </c>
       <c r="X35" t="n">
-        <v>2404.502628619254</v>
+        <v>2692.918109222393</v>
       </c>
       <c r="Y35" t="n">
-        <v>2404.502628619254</v>
+        <v>2296.427400142994</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>75.96123154786345</v>
       </c>
       <c r="L36" t="n">
-        <v>628.3937003794192</v>
+        <v>313.8895596758445</v>
       </c>
       <c r="M36" t="n">
-        <v>628.3937003794192</v>
+        <v>1022.025029968184</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.662483458645</v>
+        <v>1760.29381304741</v>
       </c>
       <c r="O36" t="n">
-        <v>1958.645743021237</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P36" t="n">
         <v>2352.277072610002</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.6842095071841</v>
+        <v>296.0072301711264</v>
       </c>
       <c r="C37" t="n">
-        <v>544.4790915731733</v>
+        <v>296.0072301711264</v>
       </c>
       <c r="D37" t="n">
-        <v>388.845978475688</v>
+        <v>296.0072301711264</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2871663348905</v>
+        <v>296.0072301711264</v>
       </c>
       <c r="F37" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="G37" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H37" t="n">
         <v>75.96123154786345</v>
@@ -7125,22 +7125,22 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T37" t="n">
-        <v>1222.217555045145</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U37" t="n">
-        <v>1222.217555045145</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="V37" t="n">
-        <v>1222.217555045145</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="W37" t="n">
-        <v>938.887152976323</v>
+        <v>704.3273100457843</v>
       </c>
       <c r="X37" t="n">
-        <v>938.887152976323</v>
+        <v>704.3273100457843</v>
       </c>
       <c r="Y37" t="n">
-        <v>899.8922281984853</v>
+        <v>481.2152488624276</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2011.830830938272</v>
+        <v>1745.786595154935</v>
       </c>
       <c r="C38" t="n">
-        <v>1618.655329441202</v>
+        <v>1352.611093657865</v>
       </c>
       <c r="D38" t="n">
-        <v>1233.21420065787</v>
+        <v>967.1699648745332</v>
       </c>
       <c r="E38" t="n">
-        <v>830.6306757744144</v>
+        <v>967.1699648745332</v>
       </c>
       <c r="F38" t="n">
-        <v>830.6306757744144</v>
+        <v>550.275526404511</v>
       </c>
       <c r="G38" t="n">
-        <v>418.0727464612829</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H38" t="n">
-        <v>100.1838723369037</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I38" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130491</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L38" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M38" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N38" t="n">
         <v>2575.851817818621</v>
@@ -7204,22 +7204,22 @@
         <v>3645.330499340868</v>
       </c>
       <c r="T38" t="n">
-        <v>3424.477523585818</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="U38" t="n">
-        <v>3168.773180116326</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="V38" t="n">
-        <v>3168.773180116326</v>
+        <v>3303.223690044387</v>
       </c>
       <c r="W38" t="n">
-        <v>2797.774145084614</v>
+        <v>2932.224655012674</v>
       </c>
       <c r="X38" t="n">
-        <v>2408.32154001767</v>
+        <v>2542.772049945731</v>
       </c>
       <c r="Y38" t="n">
-        <v>2011.830830938272</v>
+        <v>2146.281340866332</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L39" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.529170671759</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N39" t="n">
-        <v>2074.797953750985</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O39" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2822.010371829901</v>
+        <v>184.8229944821732</v>
       </c>
       <c r="C40" t="n">
-        <v>2651.80525389589</v>
+        <v>184.8229944821732</v>
       </c>
       <c r="D40" t="n">
-        <v>2651.80525389589</v>
+        <v>184.8229944821732</v>
       </c>
       <c r="E40" t="n">
-        <v>2651.80525389589</v>
+        <v>184.8229944821732</v>
       </c>
       <c r="F40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K40" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L40" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M40" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N40" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O40" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P40" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q40" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R40" t="n">
-        <v>3686.359411909726</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S40" t="n">
-        <v>3686.359411909726</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T40" t="n">
-        <v>3686.359411909726</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U40" t="n">
-        <v>3686.359411909726</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V40" t="n">
-        <v>3686.359411909726</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="W40" t="n">
-        <v>3464.410773921576</v>
+        <v>418.9033166991902</v>
       </c>
       <c r="X40" t="n">
-        <v>3230.330451704559</v>
+        <v>184.8229944821732</v>
       </c>
       <c r="Y40" t="n">
-        <v>3007.218390521203</v>
+        <v>184.8229944821732</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2455.667335788132</v>
+        <v>2404.502628619254</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.346681997961</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="D41" t="n">
-        <v>1740.905553214629</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E41" t="n">
-        <v>1338.322028331173</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F41" t="n">
-        <v>921.4275898611513</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G41" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H41" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I41" t="n">
         <v>75.96123154786346</v>
@@ -7417,13 +7417,13 @@
         <v>705.31081511305</v>
       </c>
       <c r="L41" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M41" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O41" t="n">
         <v>3115.769891361771</v>
@@ -7450,13 +7450,13 @@
         <v>2826.666370819845</v>
       </c>
       <c r="W41" t="n">
-        <v>2455.667335788132</v>
+        <v>2793.955233686197</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.667335788132</v>
+        <v>2404.502628619254</v>
       </c>
       <c r="Y41" t="n">
-        <v>2455.667335788132</v>
+        <v>2404.502628619254</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>75.96123154786346</v>
       </c>
       <c r="K42" t="n">
-        <v>446.9164895271324</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="L42" t="n">
-        <v>999.3489583586882</v>
+        <v>628.3937003794192</v>
       </c>
       <c r="M42" t="n">
-        <v>1707.484428651028</v>
+        <v>1336.529170671759</v>
       </c>
       <c r="N42" t="n">
-        <v>1707.484428651028</v>
+        <v>2074.797953750985</v>
       </c>
       <c r="O42" t="n">
-        <v>1707.484428651028</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P42" t="n">
-        <v>2173.671489320713</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>530.5670731016651</v>
+        <v>504.1457274264179</v>
       </c>
       <c r="C43" t="n">
-        <v>530.5670731016651</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="D43" t="n">
-        <v>374.9339600041798</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="E43" t="n">
-        <v>219.3751478633823</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="F43" t="n">
-        <v>75.96123154786346</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G43" t="n">
-        <v>75.96123154786346</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H43" t="n">
         <v>75.96123154786346</v>
@@ -7596,25 +7596,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S43" t="n">
-        <v>1222.217555045145</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T43" t="n">
-        <v>1222.217555045145</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="U43" t="n">
-        <v>1222.217555045145</v>
+        <v>504.1457274264179</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.217555045145</v>
+        <v>504.1457274264179</v>
       </c>
       <c r="W43" t="n">
-        <v>938.887152976323</v>
+        <v>504.1457274264179</v>
       </c>
       <c r="X43" t="n">
-        <v>938.887152976323</v>
+        <v>504.1457274264179</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.7750917929664</v>
+        <v>504.1457274264179</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1306.868718644484</v>
+        <v>1982.335120258587</v>
       </c>
       <c r="C44" t="n">
-        <v>1306.868718644484</v>
+        <v>1589.159618761518</v>
       </c>
       <c r="D44" t="n">
-        <v>921.4275898611513</v>
+        <v>1203.718489978185</v>
       </c>
       <c r="E44" t="n">
-        <v>921.4275898611513</v>
+        <v>1203.718489978185</v>
       </c>
       <c r="F44" t="n">
-        <v>921.4275898611513</v>
+        <v>786.8240515081631</v>
       </c>
       <c r="G44" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H44" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I44" t="n">
         <v>75.96123154786345</v>
@@ -7660,7 +7660,7 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O44" t="n">
         <v>3115.769891361771</v>
@@ -7684,16 +7684,16 @@
         <v>3168.773180116326</v>
       </c>
       <c r="V44" t="n">
-        <v>2826.666370819845</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="W44" t="n">
-        <v>2493.306778502223</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="X44" t="n">
-        <v>2103.854173435279</v>
+        <v>2779.320575049383</v>
       </c>
       <c r="Y44" t="n">
-        <v>1707.363464355881</v>
+        <v>2382.829865969984</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K45" t="n">
-        <v>446.9164895271324</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L45" t="n">
-        <v>446.9164895271324</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M45" t="n">
-        <v>446.9164895271324</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N45" t="n">
-        <v>1185.185272606358</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O45" t="n">
-        <v>1777.168532168951</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P45" t="n">
-        <v>2243.355592838636</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q45" t="n">
         <v>2352.277072610002</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3577.504903855301</v>
+        <v>330.385490482299</v>
       </c>
       <c r="C46" t="n">
-        <v>3577.504903855301</v>
+        <v>160.1803725482882</v>
       </c>
       <c r="D46" t="n">
-        <v>3421.871790757816</v>
+        <v>160.1803725482882</v>
       </c>
       <c r="E46" t="n">
-        <v>3266.312978617018</v>
+        <v>160.1803725482882</v>
       </c>
       <c r="F46" t="n">
-        <v>3108.987043829991</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G46" t="n">
-        <v>2941.004294140362</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H46" t="n">
-        <v>2787.937884177175</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I46" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K46" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L46" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M46" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N46" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O46" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P46" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R46" t="n">
-        <v>3686.359411909726</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S46" t="n">
-        <v>3577.504903855301</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T46" t="n">
-        <v>3577.504903855301</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="U46" t="n">
-        <v>3577.504903855301</v>
+        <v>738.705570356957</v>
       </c>
       <c r="V46" t="n">
-        <v>3577.504903855301</v>
+        <v>738.705570356957</v>
       </c>
       <c r="W46" t="n">
-        <v>3577.504903855301</v>
+        <v>738.705570356957</v>
       </c>
       <c r="X46" t="n">
-        <v>3577.504903855301</v>
+        <v>738.705570356957</v>
       </c>
       <c r="Y46" t="n">
-        <v>3577.504903855301</v>
+        <v>515.5935091736003</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>726.4998994499999</v>
+        <v>576.0417294606771</v>
       </c>
       <c r="N3" t="n">
         <v>747.7741039759435</v>
@@ -8075,10 +8075,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>173.3576105420024</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>609.629233666585</v>
       </c>
       <c r="P6" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N9" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>72.34750641868317</v>
+        <v>72.3475064186832</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9254,10 +9254,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>57.57678801837256</v>
+        <v>57.57678801837262</v>
       </c>
       <c r="O18" t="n">
-        <v>201.281489775769</v>
+        <v>201.2814897757691</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>72.34750641868317</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>72.33963800151608</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>65.3084880797033</v>
       </c>
       <c r="N21" t="n">
-        <v>57.57678801837255</v>
+        <v>181.2699623803859</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8843225204795</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>11.21154561935394</v>
+        <v>11.211545619354</v>
       </c>
       <c r="N24" t="n">
-        <v>299.7832059353482</v>
+        <v>348.5253781388753</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>25.90589819983207</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406339</v>
+        <v>192.635484886541</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248233</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404705</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574039</v>
       </c>
       <c r="O27" t="n">
-        <v>296.7442678660671</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>25.90589819983203</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995595</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N30" t="n">
         <v>2.048060461573968</v>
       </c>
       <c r="O30" t="n">
-        <v>196.8720097148261</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>318.145427193914</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O33" t="n">
-        <v>16.46232962463526</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10670,10 +10670,10 @@
         <v>37.86348895248232</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>260.8299884677651</v>
       </c>
       <c r="M36" t="n">
-        <v>11.21154561935391</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10682,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>423.513301824847</v>
+        <v>25.90589819983202</v>
       </c>
       <c r="Q36" t="n">
         <v>50.09263685995592</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>484.755730865248</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O39" t="n">
-        <v>296.744267866067</v>
+        <v>16.46232962463526</v>
       </c>
       <c r="P39" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11141,7 +11141,7 @@
         <v>52.17609846406339</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248232</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11150,16 +11150,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>2.048060461573968</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>16.46232962463526</v>
+        <v>296.744267866067</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>25.90589819983202</v>
       </c>
       <c r="Q42" t="n">
-        <v>230.5023169501467</v>
+        <v>50.09263685995592</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>20.49834389404698</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>11.2115456193539</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>160.1143335987096</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>32.65629063227294</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>258.599729774821</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>20.79832420362249</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>90.05665668438442</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>70.52516209562108</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.9599223581428</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>318.7966226942565</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>129.2532318950163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>25.06600571167706</v>
+        <v>25.06600571167709</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>265.9137494898222</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23910,10 +23910,10 @@
         <v>153.1271674224727</v>
       </c>
       <c r="I19" t="n">
-        <v>129.0690572509242</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.73998494902336</v>
+        <v>23.73998494902337</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>118.6333759660428</v>
       </c>
       <c r="S19" t="n">
-        <v>199.2264929501066</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>34.67042013369064</v>
       </c>
       <c r="U19" t="n">
         <v>282.5795167355755</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>35.25554847125213</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>318.7966226942565</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>129.2532318950163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>25.06600571167709</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>160.296822096844</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U20" t="n">
-        <v>253.061931804142</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>266.8124145795474</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>140.1740746729457</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4819164376007</v>
       </c>
       <c r="H22" t="n">
         <v>153.1271674224727</v>
       </c>
       <c r="I22" t="n">
-        <v>129.0690572509242</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.73998494902336</v>
+        <v>23.73998494902337</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>118.6333759660428</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>199.2264929501066</v>
@@ -24186,16 +24186,16 @@
         <v>282.5795167355755</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>205.2952446598831</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>123.6552279036586</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>48.09762000777976</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>44.99928758396726</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24387,7 +24387,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685203</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>230.4991426843616</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>261.5003430510589</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>118.9598301553555</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24621,10 +24621,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685203</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>73.68825677784707</v>
       </c>
       <c r="T28" t="n">
-        <v>155.5464064224173</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24688,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>396.4851396935152</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>46.83661852095111</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24843,25 +24843,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>44.96844492489076</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>155.5464064224173</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
-        <v>67.18766075060455</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>60.33487160194228</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>148.0657575365237</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25089,16 +25089,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>77.60365210199762</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>188.7742890626446</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
         <v>113.8693593270195</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>334.905018919084</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>89.44288266568138</v>
       </c>
       <c r="G37" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>123.6862121416195</v>
@@ -25365,7 +25365,7 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5697534131281</v>
@@ -25380,7 +25380,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.2759650414638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>253.5711834950545</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>89.88894494586957</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25560,7 +25560,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>47.97953013419009</v>
       </c>
       <c r="G40" t="n">
         <v>166.3029221927327</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>60.76794643986608</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>63.21629922982936</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>334.9050189190841</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>62.43908389118944</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>13.77289828679312</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>123.6862121416195</v>
@@ -25836,25 +25836,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>19.38814364243893</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>37.26304828694947</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>72.37572584873624</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>88.34114845429811</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26091,7 +26091,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623937.1835479253</v>
+        <v>623937.1835479252</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623937.1835479253</v>
+        <v>623937.183547925</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649099.2524166568</v>
+        <v>649099.2524166567</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699367.3343776169</v>
+        <v>699367.334377617</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699367.3343776169</v>
+        <v>699367.3343776171</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699367.3343776169</v>
+        <v>699367.334377617</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>699367.3343776169</v>
+        <v>699367.334377617</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699367.334377617</v>
+        <v>699367.3343776169</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699367.334377617</v>
+        <v>699367.3343776169</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>699367.3343776169</v>
+        <v>699367.334377617</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>432797.2274240564</v>
       </c>
       <c r="C2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240564</v>
       </c>
       <c r="D2" t="n">
         <v>432797.2274240564</v>
       </c>
       <c r="E2" t="n">
-        <v>305334.4197764114</v>
+        <v>305334.4197764112</v>
       </c>
       <c r="F2" t="n">
-        <v>305334.4197764113</v>
+        <v>305334.4197764112</v>
       </c>
       <c r="G2" t="n">
+        <v>318759.5532696691</v>
+      </c>
+      <c r="H2" t="n">
         <v>318759.5532696692</v>
-      </c>
-      <c r="H2" t="n">
-        <v>318759.5532696694</v>
       </c>
       <c r="I2" t="n">
         <v>345579.91189346</v>
@@ -26343,19 +26343,19 @@
         <v>345579.91189346</v>
       </c>
       <c r="L2" t="n">
-        <v>345579.9118934601</v>
+        <v>345579.91189346</v>
       </c>
       <c r="M2" t="n">
         <v>345579.91189346</v>
       </c>
       <c r="N2" t="n">
+        <v>345579.9118934601</v>
+      </c>
+      <c r="O2" t="n">
         <v>345579.91189346</v>
       </c>
-      <c r="O2" t="n">
-        <v>345579.9118934601</v>
-      </c>
       <c r="P2" t="n">
-        <v>345579.9118934599</v>
+        <v>345579.91189346</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54449.60099636411</v>
+        <v>54449.60099636402</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>160514.3228585199</v>
       </c>
       <c r="C4" t="n">
-        <v>160514.32285852</v>
+        <v>160514.3228585199</v>
       </c>
       <c r="D4" t="n">
         <v>160514.3228585199</v>
@@ -26478,16 +26478,16 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="G5" t="n">
-        <v>51802.95469354862</v>
+        <v>51802.95469354861</v>
       </c>
       <c r="H5" t="n">
-        <v>51802.95469354862</v>
+        <v>51802.95469354861</v>
       </c>
       <c r="I5" t="n">
         <v>60977.55903357454</v>
@@ -26527,43 +26527,43 @@
         <v>191444.7675104086</v>
       </c>
       <c r="D6" t="n">
-        <v>191444.7675104087</v>
+        <v>191444.7675104086</v>
       </c>
       <c r="E6" t="n">
-        <v>218862.1831373571</v>
+        <v>218331.0881054917</v>
       </c>
       <c r="F6" t="n">
-        <v>218862.183137357</v>
+        <v>218331.0881054917</v>
       </c>
       <c r="G6" t="n">
-        <v>173785.3780726599</v>
+        <v>173310.2210970165</v>
       </c>
       <c r="H6" t="n">
-        <v>228234.9790690241</v>
+        <v>227759.8220933807</v>
       </c>
       <c r="I6" t="n">
-        <v>141578.6699733263</v>
+        <v>141215.2644919488</v>
       </c>
       <c r="J6" t="n">
-        <v>43795.97720937962</v>
+        <v>43432.57172800213</v>
       </c>
       <c r="K6" t="n">
-        <v>246959.6903220747</v>
+        <v>246596.2848406972</v>
       </c>
       <c r="L6" t="n">
-        <v>246959.6903220747</v>
+        <v>246596.2848406972</v>
       </c>
       <c r="M6" t="n">
-        <v>246959.6903220747</v>
+        <v>246596.2848406971</v>
       </c>
       <c r="N6" t="n">
-        <v>246959.6903220746</v>
+        <v>246596.2848406973</v>
       </c>
       <c r="O6" t="n">
-        <v>233069.7251351208</v>
+        <v>232706.3196537432</v>
       </c>
       <c r="P6" t="n">
-        <v>246959.6903220746</v>
+        <v>246596.2848406972</v>
       </c>
     </row>
   </sheetData>
@@ -26752,16 +26752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671317</v>
+        <v>49.68556691671306</v>
       </c>
       <c r="H3" t="n">
-        <v>49.68556691671319</v>
+        <v>49.68556691671306</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980879</v>
       </c>
       <c r="J3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980879</v>
       </c>
       <c r="K3" t="n">
         <v>148.9460117980881</v>
@@ -26798,16 +26798,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>834.2073903744124</v>
+        <v>834.2073903744123</v>
       </c>
       <c r="H4" t="n">
-        <v>834.2073903744124</v>
+        <v>834.2073903744123</v>
       </c>
       <c r="I4" t="n">
         <v>949.5153943482931</v>
@@ -26822,7 +26822,7 @@
         <v>949.5153943482933</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482931</v>
       </c>
       <c r="N4" t="n">
         <v>949.5153943482932</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671316</v>
+        <v>49.68556691671306</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.71829407296838</v>
+        <v>57.71829407296837</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.3080039738807</v>
+        <v>115.3080039738808</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.7182940729685</v>
+        <v>57.71829407296848</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407296838</v>
+        <v>57.71829407296837</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>208.8936825939009</v>
       </c>
       <c r="H2" t="n">
-        <v>53.29725106586807</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27447,7 +27447,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27560,7 +27560,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>164.556118469731</v>
       </c>
       <c r="X4" t="n">
-        <v>165.708020294746</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>326.8863003027286</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>51.9522757580697</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>110.2276902977882</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>195.7825077669051</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>170.4291684291334</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27864,13 +27864,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>68.29889674993439</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>59.21117617104724</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1997409725295</v>
+        <v>0.1997409725294996</v>
       </c>
       <c r="H17" t="n">
-        <v>2.045597234917743</v>
+        <v>2.045597234917738</v>
       </c>
       <c r="I17" t="n">
-        <v>7.700513843443558</v>
+        <v>7.700513843443541</v>
       </c>
       <c r="J17" t="n">
-        <v>16.95276536722567</v>
+        <v>16.95276536722563</v>
       </c>
       <c r="K17" t="n">
-        <v>25.40780073439941</v>
+        <v>25.40780073439936</v>
       </c>
       <c r="L17" t="n">
-        <v>31.5206235224491</v>
+        <v>31.52062352244904</v>
       </c>
       <c r="M17" t="n">
-        <v>35.0727670426706</v>
+        <v>35.07276704267052</v>
       </c>
       <c r="N17" t="n">
-        <v>35.64028108087005</v>
+        <v>35.64028108086997</v>
       </c>
       <c r="O17" t="n">
-        <v>33.65410678527982</v>
+        <v>33.65410678527975</v>
       </c>
       <c r="P17" t="n">
-        <v>28.72300152595779</v>
+        <v>28.72300152595773</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.56977794724506</v>
+        <v>21.56977794724502</v>
       </c>
       <c r="R17" t="n">
-        <v>12.54697886565622</v>
+        <v>12.54697886565619</v>
       </c>
       <c r="S17" t="n">
-        <v>4.551597411515987</v>
+        <v>4.551597411515977</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8743661072478869</v>
+        <v>0.874366107247885</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01597927780236</v>
+        <v>0.01597927780235997</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1068708420472698</v>
+        <v>0.1068708420472696</v>
       </c>
       <c r="H18" t="n">
-        <v>1.032147342930211</v>
+        <v>1.032147342930209</v>
       </c>
       <c r="I18" t="n">
-        <v>3.679544342416967</v>
+        <v>3.679544342416959</v>
       </c>
       <c r="J18" t="n">
-        <v>10.09695091465018</v>
+        <v>10.09695091465015</v>
       </c>
       <c r="K18" t="n">
-        <v>17.25729733181726</v>
+        <v>17.25729733181722</v>
       </c>
       <c r="L18" t="n">
-        <v>23.20456594539515</v>
+        <v>23.2045659453951</v>
       </c>
       <c r="M18" t="n">
-        <v>27.07863396960867</v>
+        <v>27.07863396960862</v>
       </c>
       <c r="N18" t="n">
-        <v>27.7953248357941</v>
+        <v>27.79532483579404</v>
       </c>
       <c r="O18" t="n">
-        <v>25.42729196727301</v>
+        <v>25.42729196727296</v>
       </c>
       <c r="P18" t="n">
-        <v>20.40764351339489</v>
+        <v>20.40764351339485</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.64196924098132</v>
+        <v>13.64196924098129</v>
       </c>
       <c r="R18" t="n">
-        <v>6.635366842198037</v>
+        <v>6.635366842198023</v>
       </c>
       <c r="S18" t="n">
-        <v>1.985079017851699</v>
+        <v>1.985079017851695</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4307644905326357</v>
+        <v>0.4307644905326348</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007030976450478282</v>
+        <v>0.007030976450478267</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08959692394817129</v>
+        <v>0.08959692394817109</v>
       </c>
       <c r="H19" t="n">
-        <v>0.796598105648287</v>
+        <v>0.7965981056482854</v>
       </c>
       <c r="I19" t="n">
-        <v>2.694423858368643</v>
+        <v>2.694423858368637</v>
       </c>
       <c r="J19" t="n">
-        <v>6.334502523135709</v>
+        <v>6.334502523135695</v>
       </c>
       <c r="K19" t="n">
-        <v>10.40953352779663</v>
+        <v>10.4095335277966</v>
       </c>
       <c r="L19" t="n">
-        <v>13.32061903862176</v>
+        <v>13.32061903862173</v>
       </c>
       <c r="M19" t="n">
-        <v>14.04472508762107</v>
+        <v>14.04472508762104</v>
       </c>
       <c r="N19" t="n">
-        <v>13.71077291654153</v>
+        <v>13.7107729165415</v>
       </c>
       <c r="O19" t="n">
-        <v>12.6641179413288</v>
+        <v>12.66411794132877</v>
       </c>
       <c r="P19" t="n">
-        <v>10.83634069278609</v>
+        <v>10.83634069278607</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.502520604423689</v>
+        <v>7.502520604423673</v>
       </c>
       <c r="R19" t="n">
-        <v>4.028603507705955</v>
+        <v>4.028603507705946</v>
       </c>
       <c r="S19" t="n">
-        <v>1.561430029169494</v>
+        <v>1.56143002916949</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3828232205058226</v>
+        <v>0.3828232205058218</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00488710494262753</v>
+        <v>0.004887104942627519</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1997409725295001</v>
+        <v>0.1997409725294996</v>
       </c>
       <c r="H20" t="n">
-        <v>2.045597234917744</v>
+        <v>2.045597234917738</v>
       </c>
       <c r="I20" t="n">
-        <v>7.700513843443561</v>
+        <v>7.700513843443541</v>
       </c>
       <c r="J20" t="n">
-        <v>16.95276536722568</v>
+        <v>16.95276536722563</v>
       </c>
       <c r="K20" t="n">
-        <v>25.40780073439942</v>
+        <v>25.40780073439936</v>
       </c>
       <c r="L20" t="n">
-        <v>31.52062352244912</v>
+        <v>31.52062352244904</v>
       </c>
       <c r="M20" t="n">
-        <v>35.07276704267061</v>
+        <v>35.07276704267052</v>
       </c>
       <c r="N20" t="n">
-        <v>35.64028108087006</v>
+        <v>35.64028108086997</v>
       </c>
       <c r="O20" t="n">
-        <v>33.65410678527984</v>
+        <v>33.65410678527975</v>
       </c>
       <c r="P20" t="n">
-        <v>28.7230015259578</v>
+        <v>28.72300152595773</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.56977794724507</v>
+        <v>21.56977794724502</v>
       </c>
       <c r="R20" t="n">
-        <v>12.54697886565622</v>
+        <v>12.54697886565619</v>
       </c>
       <c r="S20" t="n">
-        <v>4.551597411515989</v>
+        <v>4.551597411515977</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8743661072478872</v>
+        <v>0.874366107247885</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01597927780236</v>
+        <v>0.01597927780235997</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1068708420472699</v>
+        <v>0.1068708420472696</v>
       </c>
       <c r="H21" t="n">
-        <v>1.032147342930212</v>
+        <v>1.032147342930209</v>
       </c>
       <c r="I21" t="n">
-        <v>3.679544342416968</v>
+        <v>3.679544342416959</v>
       </c>
       <c r="J21" t="n">
-        <v>10.09695091465018</v>
+        <v>10.09695091465015</v>
       </c>
       <c r="K21" t="n">
-        <v>17.25729733181726</v>
+        <v>17.25729733181722</v>
       </c>
       <c r="L21" t="n">
-        <v>23.20456594539516</v>
+        <v>23.2045659453951</v>
       </c>
       <c r="M21" t="n">
-        <v>27.07863396960868</v>
+        <v>27.07863396960862</v>
       </c>
       <c r="N21" t="n">
-        <v>27.79532483579411</v>
+        <v>27.79532483579404</v>
       </c>
       <c r="O21" t="n">
-        <v>25.42729196727302</v>
+        <v>25.42729196727296</v>
       </c>
       <c r="P21" t="n">
-        <v>20.4076435133949</v>
+        <v>20.40764351339485</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.64196924098133</v>
+        <v>13.64196924098129</v>
       </c>
       <c r="R21" t="n">
-        <v>6.63536684219804</v>
+        <v>6.635366842198023</v>
       </c>
       <c r="S21" t="n">
-        <v>1.9850790178517</v>
+        <v>1.985079017851695</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4307644905326359</v>
+        <v>0.4307644905326348</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007030976450478285</v>
+        <v>0.007030976450478267</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08959692394817131</v>
+        <v>0.08959692394817109</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7965981056482874</v>
+        <v>0.7965981056482854</v>
       </c>
       <c r="I22" t="n">
-        <v>2.694423858368644</v>
+        <v>2.694423858368637</v>
       </c>
       <c r="J22" t="n">
-        <v>6.334502523135712</v>
+        <v>6.334502523135695</v>
       </c>
       <c r="K22" t="n">
-        <v>10.40953352779663</v>
+        <v>10.4095335277966</v>
       </c>
       <c r="L22" t="n">
-        <v>13.32061903862176</v>
+        <v>13.32061903862173</v>
       </c>
       <c r="M22" t="n">
-        <v>14.04472508762107</v>
+        <v>14.04472508762104</v>
       </c>
       <c r="N22" t="n">
-        <v>13.71077291654153</v>
+        <v>13.7107729165415</v>
       </c>
       <c r="O22" t="n">
-        <v>12.6641179413288</v>
+        <v>12.66411794132877</v>
       </c>
       <c r="P22" t="n">
-        <v>10.8363406927861</v>
+        <v>10.83634069278607</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.502520604423692</v>
+        <v>7.502520604423673</v>
       </c>
       <c r="R22" t="n">
-        <v>4.028603507705957</v>
+        <v>4.028603507705946</v>
       </c>
       <c r="S22" t="n">
-        <v>1.561430029169494</v>
+        <v>1.56143002916949</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3828232205058228</v>
+        <v>0.3828232205058218</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004887104942627532</v>
+        <v>0.004887104942627519</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767354</v>
+        <v>0.598777936876735</v>
       </c>
       <c r="H23" t="n">
-        <v>6.132234546038868</v>
+        <v>6.132234546038863</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144035</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999187</v>
+        <v>50.82052891999183</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798409</v>
+        <v>76.16679898798404</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367551</v>
+        <v>94.49164927367543</v>
       </c>
       <c r="M23" t="n">
         <v>105.1401664086071</v>
       </c>
       <c r="N23" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217581</v>
       </c>
       <c r="O23" t="n">
         <v>100.8873461119401</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529571</v>
+        <v>86.10501579529566</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.6612809308976</v>
+        <v>64.66128093089756</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733324</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657861</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677909</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013879</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.320374440471359</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447073</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938671</v>
+        <v>11.0304357793867</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926993</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085102</v>
+        <v>51.73344638085098</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287122</v>
+        <v>69.56200296287118</v>
       </c>
       <c r="M24" t="n">
-        <v>81.17557642995797</v>
+        <v>81.17557642995791</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259268</v>
+        <v>83.32405239259262</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425361</v>
+        <v>76.22522926425356</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948262</v>
+        <v>61.17746661948258</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595804</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031824</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650023</v>
+        <v>5.950814716650019</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048415</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162243</v>
+        <v>0.2685911688162241</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566067</v>
       </c>
       <c r="I25" t="n">
-        <v>8.077268967673367</v>
+        <v>8.07726896767336</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530704</v>
       </c>
       <c r="K25" t="n">
-        <v>31.2054103406486</v>
+        <v>31.20541034064858</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927755</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089232</v>
+        <v>42.10288658089229</v>
       </c>
       <c r="N25" t="n">
-        <v>41.10177404257734</v>
+        <v>41.1017740425773</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322413</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937313</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151128</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513676</v>
       </c>
       <c r="S25" t="n">
-        <v>4.68081155109729</v>
+        <v>4.680811551097286</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214776</v>
+        <v>1.147616812214775</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997588</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767354</v>
+        <v>0.598777936876735</v>
       </c>
       <c r="H26" t="n">
-        <v>6.132234546038868</v>
+        <v>6.132234546038863</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144035</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999187</v>
+        <v>50.82052891999183</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798409</v>
+        <v>76.16679898798404</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367551</v>
+        <v>94.49164927367543</v>
       </c>
       <c r="M26" t="n">
         <v>105.1401664086071</v>
       </c>
       <c r="N26" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217581</v>
       </c>
       <c r="O26" t="n">
         <v>100.8873461119401</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529571</v>
+        <v>86.10501579529566</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.6612809308976</v>
+        <v>64.66128093089756</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733324</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657861</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677909</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013879</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.320374440471359</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447073</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938671</v>
+        <v>11.0304357793867</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926993</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085102</v>
+        <v>51.73344638085098</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287122</v>
+        <v>69.56200296287118</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995797</v>
+        <v>81.17557642995791</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259268</v>
+        <v>83.32405239259262</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425361</v>
+        <v>76.22522926425356</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948262</v>
+        <v>61.17746661948258</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595804</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031824</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650023</v>
+        <v>5.950814716650019</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268328</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048415</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162243</v>
+        <v>0.2685911688162241</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566067</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673367</v>
+        <v>8.07726896767336</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530704</v>
       </c>
       <c r="K28" t="n">
-        <v>31.2054103406486</v>
+        <v>31.20541034064858</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927755</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089232</v>
+        <v>42.10288658089229</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257734</v>
+        <v>41.1017740425773</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322413</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937313</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151128</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513676</v>
       </c>
       <c r="S28" t="n">
-        <v>4.68081155109729</v>
+        <v>4.680811551097286</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214776</v>
+        <v>1.147616812214775</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997588</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H44" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999189</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M44" t="n">
         <v>105.1401664086072</v>
@@ -34386,13 +34386,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S44" t="n">
         <v>13.64465223657863</v>
@@ -34401,7 +34401,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I45" t="n">
         <v>11.03043577938672</v>
@@ -34450,37 +34450,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R45" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H46" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J46" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927759</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P46" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R46" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T46" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>634.1127774006881</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="N3" t="n">
         <v>662.4019911217769</v>
@@ -34795,10 +34795,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>86.27424572268772</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>516.9416747776961</v>
       </c>
       <c r="P6" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N9" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0636470933147</v>
+        <v>163.0636470933146</v>
       </c>
       <c r="K17" t="n">
         <v>388.016241166179</v>
       </c>
       <c r="L17" t="n">
-        <v>529.8239484906601</v>
+        <v>529.82394849066</v>
       </c>
       <c r="M17" t="n">
-        <v>586.5888276937621</v>
+        <v>586.588827693762</v>
       </c>
       <c r="N17" t="n">
-        <v>568.7829918257812</v>
+        <v>568.7829918257811</v>
       </c>
       <c r="O17" t="n">
-        <v>478.1385521310661</v>
+        <v>478.138552131066</v>
       </c>
       <c r="P17" t="n">
-        <v>380.4275390325455</v>
+        <v>380.4275390325454</v>
       </c>
       <c r="Q17" t="n">
         <v>208.2824649583042</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>340.2261317381066</v>
+        <v>340.2261317381065</v>
       </c>
       <c r="L18" t="n">
-        <v>511.6551577618732</v>
+        <v>511.6551577618731</v>
       </c>
       <c r="M18" t="n">
         <v>661.1914113702967</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.0711912146066</v>
+        <v>93.07119121460657</v>
       </c>
       <c r="L19" t="n">
-        <v>179.1061138606418</v>
+        <v>179.1061138606417</v>
       </c>
       <c r="M19" t="n">
         <v>202.218036540413</v>
@@ -36056,13 +36056,13 @@
         <v>198.7508072915003</v>
       </c>
       <c r="O19" t="n">
-        <v>177.0123674784077</v>
+        <v>177.0123674784076</v>
       </c>
       <c r="P19" t="n">
         <v>131.9233768307442</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.95928461457617</v>
+        <v>10.95928461457616</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0636470933147</v>
+        <v>163.0636470933146</v>
       </c>
       <c r="K20" t="n">
         <v>388.016241166179</v>
       </c>
       <c r="L20" t="n">
-        <v>529.8239484906601</v>
+        <v>529.82394849066</v>
       </c>
       <c r="M20" t="n">
-        <v>586.5888276937621</v>
+        <v>586.588827693762</v>
       </c>
       <c r="N20" t="n">
-        <v>568.7829918257812</v>
+        <v>568.7829918257811</v>
       </c>
       <c r="O20" t="n">
-        <v>478.1385521310661</v>
+        <v>478.138552131066</v>
       </c>
       <c r="P20" t="n">
-        <v>380.4275390325455</v>
+        <v>380.4275390325454</v>
       </c>
       <c r="Q20" t="n">
         <v>208.2824649583042</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>124.3545087123546</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>340.2261317381065</v>
       </c>
       <c r="L21" t="n">
-        <v>511.6551577618732</v>
+        <v>511.6551577618731</v>
       </c>
       <c r="M21" t="n">
-        <v>661.1914113702967</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>123.6931743620133</v>
       </c>
       <c r="O21" t="n">
-        <v>547.1649511500822</v>
+        <v>547.1649511500821</v>
       </c>
       <c r="P21" t="n">
-        <v>357.2086012145597</v>
+        <v>430.1261977723822</v>
       </c>
       <c r="Q21" t="n">
         <v>250.3743849529919</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.0711912146066</v>
+        <v>93.07119121460657</v>
       </c>
       <c r="L22" t="n">
-        <v>179.1061138606418</v>
+        <v>179.1061138606417</v>
       </c>
       <c r="M22" t="n">
         <v>202.218036540413</v>
@@ -36293,13 +36293,13 @@
         <v>198.7508072915003</v>
       </c>
       <c r="O22" t="n">
-        <v>177.0123674784077</v>
+        <v>177.0123674784076</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9233768307443</v>
+        <v>131.9233768307442</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.95928461457618</v>
+        <v>10.95928461457616</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L23" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418864</v>
       </c>
       <c r="M23" t="n">
         <v>656.6562270596986</v>
@@ -36372,7 +36372,7 @@
         <v>639.9841549666693</v>
       </c>
       <c r="O23" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577263</v>
       </c>
       <c r="P23" t="n">
         <v>437.8095533018834</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K24" t="n">
-        <v>374.7022807871404</v>
+        <v>374.7022807871403</v>
       </c>
       <c r="L24" t="n">
         <v>558.0125947793492</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>297.7351454737743</v>
+        <v>346.4773176773013</v>
       </c>
       <c r="O24" t="n">
         <v>597.9628884470627</v>
       </c>
       <c r="P24" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L25" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112975</v>
       </c>
       <c r="M25" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N25" t="n">
         <v>226.1418084175361</v>
@@ -36536,7 +36536,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166376</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L26" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418864</v>
       </c>
       <c r="M26" t="n">
         <v>656.6562270596986</v>
@@ -36609,7 +36609,7 @@
         <v>639.9841549666693</v>
       </c>
       <c r="O26" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577263</v>
       </c>
       <c r="P26" t="n">
         <v>437.8095533018834</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>140.4593864224776</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871403</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>715.288353830646</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>280.2819382414318</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L28" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112975</v>
       </c>
       <c r="M28" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N28" t="n">
         <v>226.1418084175361</v>
@@ -36773,7 +36773,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166376</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K30" t="n">
         <v>374.7022807871404</v>
@@ -36919,19 +36919,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>180.4096800901908</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P30" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K33" t="n">
-        <v>280.2819382414317</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>558.0125947793492</v>
+        <v>240.3316445737182</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N36" t="n">
         <v>745.7260435143695</v>
@@ -37402,7 +37402,7 @@
         <v>597.9628884470627</v>
       </c>
       <c r="P36" t="n">
-        <v>397.607403625015</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>280.2819382414318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>558.0125947793492</v>
@@ -37870,16 +37870,16 @@
         <v>715.2883538306461</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>745.7260435143695</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>280.2819382414318</v>
       </c>
       <c r="P42" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.4096800901908</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K45" t="n">
         <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470628</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P45" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.0216967387537</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38192,7 +38192,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q46" t="n">
         <v>25.94761179166379</v>
